--- a/StudentManagementSystem/Sample data/SampleData.xlsx
+++ b/StudentManagementSystem/Sample data/SampleData.xlsx
@@ -36,8 +36,7 @@
     <t xml:space="preserve"> Nhập ngũ</t>
   </si>
   <si>
-    <t xml:space="preserve">Số CMND
- (căn cước)</t>
+    <t xml:space="preserve">Căn cước công dân</t>
   </si>
   <si>
     <t xml:space="preserve">Cấp bậc</t>
